--- a/src/data/asegurados.xlsx
+++ b/src/data/asegurados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Familiares" sheetId="1" r:id="rId1"/>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="2">
-        <v>145521156</v>
+        <v>145521189</v>
       </c>
       <c r="G2" s="3">
         <v>32986</v>
@@ -595,7 +595,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="2">
-        <v>145521157</v>
+        <v>145521190</v>
       </c>
       <c r="G3" s="3">
         <v>31222</v>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/src/data/asegurados.xlsx
+++ b/src/data/asegurados.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Familiares" sheetId="1" r:id="rId1"/>
     <sheet name="Mascotas" sheetId="2" r:id="rId2"/>
+    <sheet name="Vehiculos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>primerNombre</t>
   </si>
@@ -143,6 +144,45 @@
   </si>
   <si>
     <t>MaríaTest</t>
+  </si>
+  <si>
+    <t>placa</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>propietario</t>
+  </si>
+  <si>
+    <t>tipoVehiculo</t>
+  </si>
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>Juan Pérez</t>
+  </si>
+  <si>
+    <t>Automóvil</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>esPropietario</t>
+  </si>
+  <si>
+    <t>tipoServicio</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>OPU875</t>
+  </si>
+  <si>
+    <t>Particular</t>
   </si>
 </sst>
 </file>
@@ -482,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +667,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,4 +733,85 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/data/asegurados.xlsx
+++ b/src/data/asegurados.xlsx
@@ -179,10 +179,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>OPU875</t>
-  </si>
-  <si>
     <t>Particular</t>
+  </si>
+  <si>
+    <t>TYU875</t>
   </si>
 </sst>
 </file>
@@ -740,7 +740,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +783,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2">
         <v>2025</v>
@@ -807,7 +807,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/asegurados.xlsx
+++ b/src/data/asegurados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Familiares" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>ciudad</t>
   </si>
   <si>
-    <t>Juan</t>
-  </si>
-  <si>
     <t>Pérez</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Medellín</t>
   </si>
   <si>
-    <t>Ana</t>
-  </si>
-  <si>
     <t>López</t>
   </si>
   <si>
@@ -183,6 +177,12 @@
   </si>
   <si>
     <t>TYU875</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Maria</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +202,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -229,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -240,6 +248,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,79 +591,82 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="2">
-        <v>145521189</v>
+        <v>145521191</v>
       </c>
       <c r="G2" s="3">
         <v>32986</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2">
-        <v>145521190</v>
+        <v>145521192</v>
       </c>
       <c r="G3" s="3">
         <v>31222</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -681,16 +693,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -698,36 +710,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3">
         <v>43578</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3">
         <v>44006</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -739,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,22 +766,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -778,36 +790,36 @@
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2">
         <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/asegurados.xlsx
+++ b/src/data/asegurados.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Familiares" sheetId="1" r:id="rId1"/>
     <sheet name="Mascotas" sheetId="2" r:id="rId2"/>
     <sheet name="Vehiculos" sheetId="3" r:id="rId3"/>
+    <sheet name="Inmuebles" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>primerNombre</t>
   </si>
@@ -183,6 +184,45 @@
   </si>
   <si>
     <t>Maria</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>tipoInmueble</t>
+  </si>
+  <si>
+    <t>conjunto</t>
+  </si>
+  <si>
+    <t>yearConstruccion</t>
+  </si>
+  <si>
+    <t>pisos</t>
+  </si>
+  <si>
+    <t>nombreConjunto</t>
+  </si>
+  <si>
+    <t>interior</t>
+  </si>
+  <si>
+    <t>torre</t>
+  </si>
+  <si>
+    <t>apartamento</t>
+  </si>
+  <si>
+    <t>Calle 23 #45-67</t>
+  </si>
+  <si>
+    <t>Apto</t>
+  </si>
+  <si>
+    <t>Cerrado</t>
+  </si>
+  <si>
+    <t>Residencial Los Pinos</t>
   </si>
 </sst>
 </file>
@@ -531,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -826,4 +866,98 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>